--- a/Suitability_Curves_Data/Rhithrogena/Tanno_2012_Rhithrogena_sp_substrate_winter.xlsx
+++ b/Suitability_Curves_Data/Rhithrogena/Tanno_2012_Rhithrogena_sp_substrate_winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirja\Documents\MSc_ENR_Studium\2._Semester_FS23\Projekt_Work_Research_Group_2\Habitatmodellierung\Suitability_Curves_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirja\Documents\MSc_ENR_Studium\2._Semester_FS23\Projekt_Work_Research_Group_2\Habitatmodellierung\Habitat_Model\PWRG2\Suitability_Curves_Data\Rhithrogena\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C617A6-52EF-4343-9FBA-C2F71A2B82F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05A3FF2-4713-411A-ACC2-913383B238C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2505" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,33 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">Abundance </t>
   </si>
   <si>
     <t>Substrate class</t>
-  </si>
-  <si>
-    <t>c4</t>
-  </si>
-  <si>
-    <t>c5</t>
-  </si>
-  <si>
-    <t>c6</t>
-  </si>
-  <si>
-    <t>c7</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>c8</t>
   </si>
 </sst>
 </file>
@@ -509,7 +488,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -526,23 +505,23 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>6</v>
+      <c r="A2">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>7</v>
+      <c r="A3">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="A4">
         <v>8</v>
       </c>
       <c r="B4">
@@ -565,24 +544,24 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="A8">
+        <v>5</v>
       </c>
       <c r="B8">
         <v>0.35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>5</v>
+      <c r="A9">
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0.375</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>4</v>
+      <c r="A10">
+        <v>6</v>
       </c>
       <c r="B10">
         <v>0.4</v>
@@ -614,8 +593,8 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>2</v>
+      <c r="A16">
+        <v>4</v>
       </c>
       <c r="B16">
         <v>1</v>
